--- a/Servidor/ObservacionesHistoriasUsuario.xlsx
+++ b/Servidor/ObservacionesHistoriasUsuario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Historia de usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Los usuarios con rol de aspirante solo pueden visualizar los cursos disponibles y optar por inscribirse en estos.</t>
   </si>
   <si>
-    <t>Los usuarios con rol de coordinador pueden visualizar los cursos disponibles y cerrados. documento de coordinador: 333333, ingresar correo que quiera no se valida</t>
-  </si>
-  <si>
     <t>No pueden existir dos usuarios con el mismo documento de identidad</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>Debe permitir modificar el rol del usuario entre aspirante o docente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios con rol de coordinador pueden visualizar los cursos disponibles y cerrados. </t>
+  </si>
+  <si>
+    <t>documento de coordinador: 333333, ingresar correo que quiera no se valida</t>
   </si>
 </sst>
 </file>
@@ -220,15 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +551,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,277 +564,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="9" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>7</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>7</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="9" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="9" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
@@ -848,7 +854,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
